--- a/demo.xlsx
+++ b/demo.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,7 +14,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄勇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红薯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭家宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟章队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,27 +48,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄勇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红薯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭家宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟章队</t>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生年月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -394,68 +407,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>33239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>33241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>33242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>33244</v>
       </c>
     </row>
   </sheetData>

--- a/demo.xlsx
+++ b/demo.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF99320-07ED-46AB-82F2-173CFEE93AFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -40,10 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>年龄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,13 +54,17 @@
   </si>
   <si>
     <t>出生年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -121,7 +122,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -196,6 +197,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -231,6 +249,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,11 +441,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -420,16 +455,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -440,7 +475,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1">
         <v>33239</v>
@@ -454,7 +489,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>33240</v>
@@ -468,7 +503,7 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
         <v>33241</v>
@@ -482,7 +517,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
         <v>33242</v>
@@ -496,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>33243</v>
@@ -510,7 +545,7 @@
         <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1">
         <v>33244</v>
